--- a/Assets/_OriginalData/Excel/Config/MiniGame/MiniMap.xlsx
+++ b/Assets/_OriginalData/Excel/Config/MiniGame/MiniMap.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11027"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minxueqi/wordcipher/Assets/_OriginalData/Excel/Config/MiniGame/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A52E92-64CC-4842-976F-4BC4A9381186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Screw" sheetId="2" r:id="rId1"/>
@@ -34,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>auus</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +122,7 @@
     <t>1;</t>
   </si>
   <si>
-    <t>1001,1</t>
+    <t>103,1</t>
   </si>
   <si>
     <t>2;</t>
@@ -203,7 +197,7 @@
     <t>212;</t>
   </si>
   <si>
-    <t>1001,2</t>
+    <t>103,2</t>
   </si>
   <si>
     <t>167;</t>
@@ -629,18 +623,27 @@
     <t>5</t>
   </si>
   <si>
+    <t>2201,1;2202,1;2203,1</t>
+  </si>
+  <si>
     <t>2;3;4;6</t>
   </si>
   <si>
     <t>7;8;9;10</t>
   </si>
   <si>
+    <t>2201,1</t>
+  </si>
+  <si>
     <t>11;18&amp;2;14;16</t>
   </si>
   <si>
     <t>12;13;15;22</t>
   </si>
   <si>
+    <t>2202,1</t>
+  </si>
+  <si>
     <t>17;19;20;21</t>
   </si>
   <si>
@@ -665,6 +668,9 @@
     <t>34;44;48;56</t>
   </si>
   <si>
+    <t>2203,1</t>
+  </si>
+  <si>
     <t>33;53;54;75;105</t>
   </si>
   <si>
@@ -749,6 +755,9 @@
     <t>169;177;184;215;223</t>
   </si>
   <si>
+    <t>2201,2;2202,2;2203,2</t>
+  </si>
+  <si>
     <t>103;107;212;213;221</t>
   </si>
   <si>
@@ -861,32 +870,23 @@
   </si>
   <si>
     <t>345;346;347;348;349</t>
-  </si>
-  <si>
-    <t>2201,1</t>
-  </si>
-  <si>
-    <t>2202,1</t>
-  </si>
-  <si>
-    <t>2201,1;2202,1;2203,1</t>
-  </si>
-  <si>
-    <t>2203,1</t>
-  </si>
-  <si>
-    <t>2201,2;2202,2;2203,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -894,28 +894,169 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -929,7 +1070,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -950,13 +1091,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79992065187536243"/>
+        <fgColor theme="9" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,18 +1109,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39988402966399123"/>
+        <fgColor theme="3" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -987,13 +1302,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1015,10 +1572,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1049,17 +1603,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1317,26 +1915,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
+    <col min="1" max="3" width="6.83333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.8333333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.8333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.8333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.1666666666667" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -1418,7 +2016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1442,7 +2040,7 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="2">
@@ -1468,7 +2066,7 @@
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="2">
@@ -1494,7 +2092,7 @@
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2">
         <v>300</v>
       </c>
@@ -1518,7 +2116,7 @@
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="2">
@@ -1544,7 +2142,7 @@
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2">
         <v>300</v>
       </c>
@@ -1568,7 +2166,7 @@
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H12" s="2">
@@ -1637,7 +2235,7 @@
       <c r="E15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>1</v>
       </c>
       <c r="H15" s="2">
@@ -1712,7 +2310,7 @@
       <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H18" s="2">
@@ -1738,7 +2336,7 @@
       <c r="F19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2">
         <v>300</v>
       </c>
@@ -1759,10 +2357,10 @@
       <c r="E20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H20" s="2">
@@ -1788,7 +2386,7 @@
       <c r="F21" s="6">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2">
         <v>300</v>
       </c>
@@ -1832,7 +2430,7 @@
       <c r="E23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="9">
         <v>1</v>
       </c>
       <c r="H23" s="2">
@@ -1924,10 +2522,10 @@
       <c r="E27" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="2">
@@ -1953,7 +2551,7 @@
       <c r="F28" s="6">
         <v>0</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H28" s="2">
@@ -1979,7 +2577,7 @@
       <c r="F29" s="6">
         <v>0</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2">
         <v>300</v>
       </c>
@@ -2003,7 +2601,7 @@
       <c r="F30" s="6">
         <v>0</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2">
         <v>300</v>
       </c>
@@ -2024,10 +2622,10 @@
       <c r="E31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="2">
@@ -2119,10 +2717,10 @@
       <c r="E35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H35" s="2">
@@ -2197,7 +2795,7 @@
       <c r="F38" s="6">
         <v>0</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H38" s="2">
@@ -2223,7 +2821,7 @@
       <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2">
         <v>300</v>
       </c>
@@ -2247,7 +2845,7 @@
       <c r="F40" s="6">
         <v>0</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2">
         <v>300</v>
       </c>
@@ -2268,10 +2866,10 @@
       <c r="E41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H41" s="2">
@@ -2363,10 +2961,10 @@
       <c r="E45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H45" s="2">
@@ -2438,10 +3036,10 @@
       <c r="E48" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="10">
-        <v>1</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H48" s="2">
@@ -2467,7 +3065,7 @@
       <c r="F49" s="6">
         <v>0</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2">
         <v>300</v>
       </c>
@@ -2491,7 +3089,7 @@
       <c r="F50" s="6">
         <v>0</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2">
         <v>300</v>
       </c>
@@ -2515,7 +3113,7 @@
       <c r="F51" s="6">
         <v>0</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2">
         <v>300</v>
       </c>
@@ -2536,10 +3134,10 @@
       <c r="E52" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="10">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H52" s="2">
@@ -2585,10 +3183,10 @@
       <c r="E54" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="10">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H54" s="2">
@@ -2683,10 +3281,10 @@
       <c r="E58" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="10">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H58" s="2">
@@ -2712,7 +3310,7 @@
       <c r="F59" s="6">
         <v>0</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2">
         <v>300</v>
       </c>
@@ -2733,10 +3331,10 @@
       <c r="E60" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F60" s="10">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H60" s="2">
@@ -2762,7 +3360,7 @@
       <c r="F61" s="6">
         <v>0</v>
       </c>
-      <c r="G61" s="7"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2">
         <v>300</v>
       </c>
@@ -2806,10 +3404,10 @@
       <c r="E63" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F63" s="10">
-        <v>1</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H63" s="2">
@@ -2855,10 +3453,10 @@
       <c r="E65" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F65" s="10">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H65" s="2">
@@ -2933,7 +3531,7 @@
       <c r="F68" s="6">
         <v>0</v>
       </c>
-      <c r="G68" s="7"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2">
         <v>300</v>
       </c>
@@ -2954,10 +3552,10 @@
       <c r="E69" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F69" s="10">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H69" s="2">
@@ -2983,7 +3581,7 @@
       <c r="F70" s="6">
         <v>0</v>
       </c>
-      <c r="G70" s="7"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="2">
         <v>300</v>
       </c>
@@ -3007,7 +3605,7 @@
       <c r="F71" s="6">
         <v>0</v>
       </c>
-      <c r="G71" s="7"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="2">
         <v>300</v>
       </c>
@@ -3051,10 +3649,10 @@
       <c r="E73" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F73" s="10">
-        <v>1</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="F73" s="9">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H73" s="2">
@@ -3146,10 +3744,10 @@
       <c r="E77" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F77" s="10">
-        <v>1</v>
-      </c>
-      <c r="G77" s="7" t="s">
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H77" s="2">
@@ -3175,7 +3773,7 @@
       <c r="F78" s="6">
         <v>0</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H78" s="2">
@@ -3201,7 +3799,7 @@
       <c r="F79" s="6">
         <v>0</v>
       </c>
-      <c r="G79" s="7"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2">
         <v>300</v>
       </c>
@@ -3222,10 +3820,10 @@
       <c r="E80" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F80" s="10">
-        <v>1</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H80" s="2">
@@ -3251,7 +3849,7 @@
       <c r="F81" s="6">
         <v>0</v>
       </c>
-      <c r="G81" s="7"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2">
         <v>300</v>
       </c>
@@ -3295,10 +3893,10 @@
       <c r="E83" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F83" s="10">
-        <v>1</v>
-      </c>
-      <c r="G83" s="7" t="s">
+      <c r="F83" s="9">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H83" s="2">
@@ -3367,10 +3965,10 @@
       <c r="E86" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F86" s="10">
-        <v>1</v>
-      </c>
-      <c r="G86" s="7" t="s">
+      <c r="F86" s="9">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H86" s="2">
@@ -3381,7 +3979,7 @@
       <c r="A87" s="1">
         <v>81</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="16">
         <v>102</v>
       </c>
       <c r="C87" s="2">
@@ -3396,7 +3994,7 @@
       <c r="F87" s="6">
         <v>0</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H87" s="2">
@@ -3407,7 +4005,7 @@
       <c r="A88" s="1">
         <v>82</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="16">
         <v>102</v>
       </c>
       <c r="C88" s="2">
@@ -3422,7 +4020,7 @@
       <c r="F88" s="6">
         <v>0</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H88" s="2">
@@ -3433,7 +4031,7 @@
       <c r="A89" s="1">
         <v>83</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="16">
         <v>102</v>
       </c>
       <c r="C89" s="2">
@@ -3448,7 +4046,7 @@
       <c r="F89" s="6">
         <v>0</v>
       </c>
-      <c r="G89" s="7"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="2">
         <v>300</v>
       </c>
@@ -3457,7 +4055,7 @@
       <c r="A90" s="1">
         <v>84</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="16">
         <v>102</v>
       </c>
       <c r="C90" s="2">
@@ -3472,7 +4070,7 @@
       <c r="F90" s="6">
         <v>0</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H90" s="2">
@@ -3483,7 +4081,7 @@
       <c r="A91" s="1">
         <v>85</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="16">
         <v>102</v>
       </c>
       <c r="C91" s="2">
@@ -3498,7 +4096,7 @@
       <c r="F91" s="6">
         <v>0</v>
       </c>
-      <c r="G91" s="7"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="2">
         <v>300</v>
       </c>
@@ -3507,7 +4105,7 @@
       <c r="A92" s="1">
         <v>86</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="16">
         <v>102</v>
       </c>
       <c r="C92" s="2">
@@ -3522,7 +4120,7 @@
       <c r="F92" s="6">
         <v>0</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H92" s="2">
@@ -3533,7 +4131,7 @@
       <c r="A93" s="1">
         <v>87</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="16">
         <v>102</v>
       </c>
       <c r="C93" s="2">
@@ -3556,7 +4154,7 @@
       <c r="A94" s="1">
         <v>88</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="16">
         <v>102</v>
       </c>
       <c r="C94" s="2">
@@ -3579,7 +4177,7 @@
       <c r="A95" s="1">
         <v>89</v>
       </c>
-      <c r="B95" s="17">
+      <c r="B95" s="16">
         <v>102</v>
       </c>
       <c r="C95" s="2">
@@ -3591,7 +4189,7 @@
       <c r="E95" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F95" s="10">
+      <c r="F95" s="9">
         <v>1</v>
       </c>
       <c r="H95" s="2">
@@ -3602,7 +4200,7 @@
       <c r="A96" s="1">
         <v>90</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B96" s="16">
         <v>102</v>
       </c>
       <c r="C96" s="2">
@@ -3625,7 +4223,7 @@
       <c r="A97" s="1">
         <v>91</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B97" s="16">
         <v>102</v>
       </c>
       <c r="C97" s="2">
@@ -3651,7 +4249,7 @@
       <c r="A98" s="1">
         <v>92</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="16">
         <v>102</v>
       </c>
       <c r="C98" s="2">
@@ -3666,7 +4264,7 @@
       <c r="F98" s="6">
         <v>0</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G98" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H98" s="2">
@@ -3677,7 +4275,7 @@
       <c r="A99" s="1">
         <v>93</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="16">
         <v>102</v>
       </c>
       <c r="C99" s="2">
@@ -3692,7 +4290,7 @@
       <c r="F99" s="6">
         <v>0</v>
       </c>
-      <c r="G99" s="7"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="2">
         <v>300</v>
       </c>
@@ -3701,7 +4299,7 @@
       <c r="A100" s="1">
         <v>94</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B100" s="16">
         <v>102</v>
       </c>
       <c r="C100" s="2">
@@ -3713,10 +4311,10 @@
       <c r="E100" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F100" s="10">
-        <v>1</v>
-      </c>
-      <c r="G100" s="7" t="s">
+      <c r="F100" s="9">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H100" s="2">
@@ -3727,7 +4325,7 @@
       <c r="A101" s="1">
         <v>95</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="16">
         <v>102</v>
       </c>
       <c r="C101" s="2">
@@ -3742,7 +4340,7 @@
       <c r="F101" s="6">
         <v>0</v>
       </c>
-      <c r="G101" s="7"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="2">
         <v>300</v>
       </c>
@@ -3751,7 +4349,7 @@
       <c r="A102" s="1">
         <v>96</v>
       </c>
-      <c r="B102" s="17">
+      <c r="B102" s="16">
         <v>102</v>
       </c>
       <c r="C102" s="2">
@@ -3774,7 +4372,7 @@
       <c r="A103" s="1">
         <v>97</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B103" s="16">
         <v>102</v>
       </c>
       <c r="C103" s="2">
@@ -3786,7 +4384,7 @@
       <c r="E103" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F103" s="10">
+      <c r="F103" s="9">
         <v>1</v>
       </c>
       <c r="H103" s="2">
@@ -3797,7 +4395,7 @@
       <c r="A104" s="1">
         <v>98</v>
       </c>
-      <c r="B104" s="17">
+      <c r="B104" s="16">
         <v>102</v>
       </c>
       <c r="C104" s="2">
@@ -3820,7 +4418,7 @@
       <c r="A105" s="1">
         <v>99</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="16">
         <v>102</v>
       </c>
       <c r="C105" s="2">
@@ -3843,7 +4441,7 @@
       <c r="A106" s="1">
         <v>100</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="16">
         <v>102</v>
       </c>
       <c r="C106" s="2">
@@ -3866,7 +4464,7 @@
       <c r="A107" s="1">
         <v>101</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="16">
         <v>102</v>
       </c>
       <c r="C107" s="2">
@@ -3878,10 +4476,10 @@
       <c r="E107" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F107" s="10">
-        <v>1</v>
-      </c>
-      <c r="G107" s="7" t="s">
+      <c r="F107" s="9">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H107" s="2">
@@ -3892,7 +4490,7 @@
       <c r="A108" s="1">
         <v>102</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="16">
         <v>102</v>
       </c>
       <c r="C108" s="2">
@@ -3907,7 +4505,7 @@
       <c r="F108" s="6">
         <v>0</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="G108" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H108" s="2">
@@ -3918,7 +4516,7 @@
       <c r="A109" s="1">
         <v>103</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="16">
         <v>102</v>
       </c>
       <c r="C109" s="2">
@@ -3933,7 +4531,7 @@
       <c r="F109" s="6">
         <v>0</v>
       </c>
-      <c r="G109" s="7"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="2">
         <v>300</v>
       </c>
@@ -3942,7 +4540,7 @@
       <c r="A110" s="1">
         <v>104</v>
       </c>
-      <c r="B110" s="17">
+      <c r="B110" s="16">
         <v>102</v>
       </c>
       <c r="C110" s="2">
@@ -3957,7 +4555,7 @@
       <c r="F110" s="6">
         <v>0</v>
       </c>
-      <c r="G110" s="7"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="2">
         <v>300</v>
       </c>
@@ -3966,7 +4564,7 @@
       <c r="A111" s="1">
         <v>105</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="16">
         <v>102</v>
       </c>
       <c r="C111" s="2">
@@ -3978,10 +4576,10 @@
       <c r="E111" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F111" s="10">
-        <v>1</v>
-      </c>
-      <c r="G111" s="7" t="s">
+      <c r="F111" s="9">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H111" s="2">
@@ -3992,7 +4590,7 @@
       <c r="A112" s="1">
         <v>106</v>
       </c>
-      <c r="B112" s="17">
+      <c r="B112" s="16">
         <v>102</v>
       </c>
       <c r="C112" s="2">
@@ -4015,7 +4613,7 @@
       <c r="A113" s="1">
         <v>107</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B113" s="16">
         <v>102</v>
       </c>
       <c r="C113" s="2">
@@ -4038,7 +4636,7 @@
       <c r="A114" s="1">
         <v>108</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B114" s="16">
         <v>102</v>
       </c>
       <c r="C114" s="2">
@@ -4061,7 +4659,7 @@
       <c r="A115" s="1">
         <v>109</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="16">
         <v>102</v>
       </c>
       <c r="C115" s="2">
@@ -4073,10 +4671,10 @@
       <c r="E115" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="F115" s="10">
-        <v>1</v>
-      </c>
-      <c r="G115" s="7" t="s">
+      <c r="F115" s="9">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H115" s="2">
@@ -4087,7 +4685,7 @@
       <c r="A116" s="1">
         <v>110</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="16">
         <v>102</v>
       </c>
       <c r="C116" s="2">
@@ -4110,7 +4708,7 @@
       <c r="A117" s="1">
         <v>111</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="16">
         <v>102</v>
       </c>
       <c r="C117" s="2">
@@ -4136,7 +4734,7 @@
       <c r="A118" s="1">
         <v>112</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="16">
         <v>102</v>
       </c>
       <c r="C118" s="2">
@@ -4151,7 +4749,7 @@
       <c r="F118" s="6">
         <v>0</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="G118" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H118" s="2">
@@ -4162,7 +4760,7 @@
       <c r="A119" s="1">
         <v>113</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="16">
         <v>102</v>
       </c>
       <c r="C119" s="2">
@@ -4177,7 +4775,7 @@
       <c r="F119" s="6">
         <v>0</v>
       </c>
-      <c r="G119" s="7"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="2">
         <v>300</v>
       </c>
@@ -4186,7 +4784,7 @@
       <c r="A120" s="1">
         <v>114</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="16">
         <v>102</v>
       </c>
       <c r="C120" s="2">
@@ -4201,7 +4799,7 @@
       <c r="F120" s="6">
         <v>0</v>
       </c>
-      <c r="G120" s="7"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="2">
         <v>300</v>
       </c>
@@ -4210,7 +4808,7 @@
       <c r="A121" s="1">
         <v>115</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="16">
         <v>102</v>
       </c>
       <c r="C121" s="2">
@@ -4222,10 +4820,10 @@
       <c r="E121" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="F121" s="10">
-        <v>1</v>
-      </c>
-      <c r="G121" s="7" t="s">
+      <c r="F121" s="9">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H121" s="2">
@@ -4236,7 +4834,7 @@
       <c r="A122" s="1">
         <v>116</v>
       </c>
-      <c r="B122" s="17">
+      <c r="B122" s="16">
         <v>102</v>
       </c>
       <c r="C122" s="2">
@@ -4259,7 +4857,7 @@
       <c r="A123" s="1">
         <v>117</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="16">
         <v>102</v>
       </c>
       <c r="C123" s="2">
@@ -4282,7 +4880,7 @@
       <c r="A124" s="1">
         <v>118</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="16">
         <v>102</v>
       </c>
       <c r="C124" s="2">
@@ -4305,7 +4903,7 @@
       <c r="A125" s="1">
         <v>119</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="16">
         <v>102</v>
       </c>
       <c r="C125" s="2">
@@ -4317,10 +4915,10 @@
       <c r="E125" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F125" s="10">
-        <v>1</v>
-      </c>
-      <c r="G125" s="7" t="s">
+      <c r="F125" s="9">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H125" s="2">
@@ -4331,7 +4929,7 @@
       <c r="A126" s="1">
         <v>120</v>
       </c>
-      <c r="B126" s="17">
+      <c r="B126" s="16">
         <v>102</v>
       </c>
       <c r="C126" s="2">
@@ -4354,7 +4952,7 @@
       <c r="A127" s="1">
         <v>121</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="16">
         <v>102</v>
       </c>
       <c r="C127" s="2">
@@ -4380,7 +4978,7 @@
       <c r="A128" s="1">
         <v>122</v>
       </c>
-      <c r="B128" s="17">
+      <c r="B128" s="16">
         <v>102</v>
       </c>
       <c r="C128" s="2">
@@ -4392,10 +4990,10 @@
       <c r="E128" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F128" s="10">
-        <v>1</v>
-      </c>
-      <c r="G128" s="7" t="s">
+      <c r="F128" s="9">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H128" s="2">
@@ -4406,7 +5004,7 @@
       <c r="A129" s="1">
         <v>123</v>
       </c>
-      <c r="B129" s="17">
+      <c r="B129" s="16">
         <v>102</v>
       </c>
       <c r="C129" s="2">
@@ -4421,7 +5019,7 @@
       <c r="F129" s="6">
         <v>0</v>
       </c>
-      <c r="G129" s="7"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="2">
         <v>300</v>
       </c>
@@ -4430,7 +5028,7 @@
       <c r="A130" s="1">
         <v>124</v>
       </c>
-      <c r="B130" s="17">
+      <c r="B130" s="16">
         <v>102</v>
       </c>
       <c r="C130" s="2">
@@ -4445,7 +5043,7 @@
       <c r="F130" s="6">
         <v>0</v>
       </c>
-      <c r="G130" s="7"/>
+      <c r="G130" s="2"/>
       <c r="H130" s="2">
         <v>300</v>
       </c>
@@ -4454,7 +5052,7 @@
       <c r="A131" s="1">
         <v>125</v>
       </c>
-      <c r="B131" s="17">
+      <c r="B131" s="16">
         <v>102</v>
       </c>
       <c r="C131" s="2">
@@ -4469,7 +5067,7 @@
       <c r="F131" s="6">
         <v>0</v>
       </c>
-      <c r="G131" s="7"/>
+      <c r="G131" s="2"/>
       <c r="H131" s="2">
         <v>300</v>
       </c>
@@ -4478,7 +5076,7 @@
       <c r="A132" s="1">
         <v>126</v>
       </c>
-      <c r="B132" s="17">
+      <c r="B132" s="16">
         <v>102</v>
       </c>
       <c r="C132" s="2">
@@ -4490,10 +5088,10 @@
       <c r="E132" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F132" s="10">
-        <v>1</v>
-      </c>
-      <c r="G132" s="7" t="s">
+      <c r="F132" s="9">
+        <v>1</v>
+      </c>
+      <c r="G132" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H132" s="2">
@@ -4504,7 +5102,7 @@
       <c r="A133" s="1">
         <v>127</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B133" s="16">
         <v>102</v>
       </c>
       <c r="C133" s="2">
@@ -4527,7 +5125,7 @@
       <c r="A134" s="1">
         <v>128</v>
       </c>
-      <c r="B134" s="17">
+      <c r="B134" s="16">
         <v>102</v>
       </c>
       <c r="C134" s="2">
@@ -4539,10 +5137,10 @@
       <c r="E134" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="F134" s="10">
-        <v>1</v>
-      </c>
-      <c r="G134" s="7" t="s">
+      <c r="F134" s="9">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H134" s="2">
@@ -4553,7 +5151,7 @@
       <c r="A135" s="1">
         <v>129</v>
       </c>
-      <c r="B135" s="17">
+      <c r="B135" s="16">
         <v>102</v>
       </c>
       <c r="C135" s="2">
@@ -4576,7 +5174,7 @@
       <c r="A136" s="1">
         <v>130</v>
       </c>
-      <c r="B136" s="17">
+      <c r="B136" s="16">
         <v>102</v>
       </c>
       <c r="C136" s="2">
@@ -4599,7 +5197,7 @@
       <c r="A137" s="1">
         <v>131</v>
       </c>
-      <c r="B137" s="17">
+      <c r="B137" s="16">
         <v>102</v>
       </c>
       <c r="C137" s="2">
@@ -4625,7 +5223,7 @@
       <c r="A138" s="1">
         <v>132</v>
       </c>
-      <c r="B138" s="17">
+      <c r="B138" s="16">
         <v>102</v>
       </c>
       <c r="C138" s="2">
@@ -4637,10 +5235,10 @@
       <c r="E138" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F138" s="10">
-        <v>1</v>
-      </c>
-      <c r="G138" s="7" t="s">
+      <c r="F138" s="9">
+        <v>1</v>
+      </c>
+      <c r="G138" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H138" s="2">
@@ -4651,7 +5249,7 @@
       <c r="A139" s="1">
         <v>133</v>
       </c>
-      <c r="B139" s="17">
+      <c r="B139" s="16">
         <v>102</v>
       </c>
       <c r="C139" s="2">
@@ -4666,7 +5264,7 @@
       <c r="F139" s="6">
         <v>0</v>
       </c>
-      <c r="G139" s="7"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="2">
         <v>300</v>
       </c>
@@ -4675,7 +5273,7 @@
       <c r="A140" s="1">
         <v>134</v>
       </c>
-      <c r="B140" s="17">
+      <c r="B140" s="16">
         <v>102</v>
       </c>
       <c r="C140" s="2">
@@ -4687,10 +5285,10 @@
       <c r="E140" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F140" s="10">
-        <v>1</v>
-      </c>
-      <c r="G140" s="7" t="s">
+      <c r="F140" s="9">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H140" s="2">
@@ -4701,7 +5299,7 @@
       <c r="A141" s="1">
         <v>135</v>
       </c>
-      <c r="B141" s="17">
+      <c r="B141" s="16">
         <v>102</v>
       </c>
       <c r="C141" s="2">
@@ -4716,7 +5314,7 @@
       <c r="F141" s="6">
         <v>0</v>
       </c>
-      <c r="G141" s="7"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="2">
         <v>300</v>
       </c>
@@ -4725,7 +5323,7 @@
       <c r="A142" s="1">
         <v>136</v>
       </c>
-      <c r="B142" s="17">
+      <c r="B142" s="16">
         <v>102</v>
       </c>
       <c r="C142" s="2">
@@ -4748,7 +5346,7 @@
       <c r="A143" s="1">
         <v>137</v>
       </c>
-      <c r="B143" s="17">
+      <c r="B143" s="16">
         <v>102</v>
       </c>
       <c r="C143" s="2">
@@ -4760,10 +5358,10 @@
       <c r="E143" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F143" s="10">
-        <v>1</v>
-      </c>
-      <c r="G143" s="7" t="s">
+      <c r="F143" s="9">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H143" s="2">
@@ -4774,7 +5372,7 @@
       <c r="A144" s="1">
         <v>138</v>
       </c>
-      <c r="B144" s="17">
+      <c r="B144" s="16">
         <v>102</v>
       </c>
       <c r="C144" s="2">
@@ -4797,7 +5395,7 @@
       <c r="A145" s="1">
         <v>139</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B145" s="16">
         <v>102</v>
       </c>
       <c r="C145" s="2">
@@ -4809,10 +5407,10 @@
       <c r="E145" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F145" s="10">
-        <v>1</v>
-      </c>
-      <c r="G145" s="7" t="s">
+      <c r="F145" s="9">
+        <v>1</v>
+      </c>
+      <c r="G145" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H145" s="2">
@@ -4823,7 +5421,7 @@
       <c r="A146" s="1">
         <v>140</v>
       </c>
-      <c r="B146" s="17">
+      <c r="B146" s="16">
         <v>102</v>
       </c>
       <c r="C146" s="2">
@@ -4846,7 +5444,7 @@
       <c r="A147" s="1">
         <v>141</v>
       </c>
-      <c r="B147" s="17">
+      <c r="B147" s="16">
         <v>102</v>
       </c>
       <c r="C147" s="2">
@@ -4872,7 +5470,7 @@
       <c r="A148" s="1">
         <v>142</v>
       </c>
-      <c r="B148" s="17">
+      <c r="B148" s="16">
         <v>102</v>
       </c>
       <c r="C148" s="2">
@@ -4887,7 +5485,7 @@
       <c r="F148" s="6">
         <v>0</v>
       </c>
-      <c r="G148" s="7"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="2">
         <v>300</v>
       </c>
@@ -4896,7 +5494,7 @@
       <c r="A149" s="1">
         <v>143</v>
       </c>
-      <c r="B149" s="17">
+      <c r="B149" s="16">
         <v>102</v>
       </c>
       <c r="C149" s="2">
@@ -4908,10 +5506,10 @@
       <c r="E149" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F149" s="10">
-        <v>1</v>
-      </c>
-      <c r="G149" s="7" t="s">
+      <c r="F149" s="9">
+        <v>1</v>
+      </c>
+      <c r="G149" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H149" s="2">
@@ -4922,7 +5520,7 @@
       <c r="A150" s="1">
         <v>144</v>
       </c>
-      <c r="B150" s="17">
+      <c r="B150" s="16">
         <v>102</v>
       </c>
       <c r="C150" s="2">
@@ -4937,7 +5535,7 @@
       <c r="F150" s="6">
         <v>0</v>
       </c>
-      <c r="G150" s="7"/>
+      <c r="G150" s="2"/>
       <c r="H150" s="2">
         <v>300</v>
       </c>
@@ -4946,7 +5544,7 @@
       <c r="A151" s="1">
         <v>145</v>
       </c>
-      <c r="B151" s="17">
+      <c r="B151" s="16">
         <v>102</v>
       </c>
       <c r="C151" s="2">
@@ -4961,7 +5559,7 @@
       <c r="F151" s="6">
         <v>0</v>
       </c>
-      <c r="G151" s="7"/>
+      <c r="G151" s="2"/>
       <c r="H151" s="2">
         <v>300</v>
       </c>
@@ -4970,7 +5568,7 @@
       <c r="A152" s="1">
         <v>146</v>
       </c>
-      <c r="B152" s="17">
+      <c r="B152" s="16">
         <v>102</v>
       </c>
       <c r="C152" s="2">
@@ -4993,7 +5591,7 @@
       <c r="A153" s="1">
         <v>147</v>
       </c>
-      <c r="B153" s="17">
+      <c r="B153" s="16">
         <v>102</v>
       </c>
       <c r="C153" s="2">
@@ -5005,10 +5603,10 @@
       <c r="E153" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F153" s="10">
-        <v>1</v>
-      </c>
-      <c r="G153" s="7" t="s">
+      <c r="F153" s="9">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H153" s="2">
@@ -5019,7 +5617,7 @@
       <c r="A154" s="1">
         <v>148</v>
       </c>
-      <c r="B154" s="17">
+      <c r="B154" s="16">
         <v>102</v>
       </c>
       <c r="C154" s="2">
@@ -5042,7 +5640,7 @@
       <c r="A155" s="1">
         <v>149</v>
       </c>
-      <c r="B155" s="17">
+      <c r="B155" s="16">
         <v>102</v>
       </c>
       <c r="C155" s="2">
@@ -5065,7 +5663,7 @@
       <c r="A156" s="1">
         <v>150</v>
       </c>
-      <c r="B156" s="17">
+      <c r="B156" s="16">
         <v>102</v>
       </c>
       <c r="C156" s="2">
@@ -5088,7 +5686,7 @@
       <c r="A157" s="1">
         <v>151</v>
       </c>
-      <c r="B157" s="17">
+      <c r="B157" s="16">
         <v>102</v>
       </c>
       <c r="C157" s="2">
@@ -5100,10 +5698,10 @@
       <c r="E157" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F157" s="10">
-        <v>1</v>
-      </c>
-      <c r="G157" s="7" t="s">
+      <c r="F157" s="9">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H157" s="2">
@@ -5114,7 +5712,7 @@
       <c r="A158" s="1">
         <v>152</v>
       </c>
-      <c r="B158" s="17">
+      <c r="B158" s="16">
         <v>102</v>
       </c>
       <c r="C158" s="2">
@@ -5129,7 +5727,7 @@
       <c r="F158" s="6">
         <v>0</v>
       </c>
-      <c r="G158" s="7" t="s">
+      <c r="G158" s="2" t="s">
         <v>22</v>
       </c>
       <c r="H158" s="2">
@@ -5140,7 +5738,7 @@
       <c r="A159" s="1">
         <v>153</v>
       </c>
-      <c r="B159" s="17">
+      <c r="B159" s="16">
         <v>102</v>
       </c>
       <c r="C159" s="2">
@@ -5155,7 +5753,7 @@
       <c r="F159" s="6">
         <v>0</v>
       </c>
-      <c r="G159" s="7"/>
+      <c r="G159" s="2"/>
       <c r="H159" s="2">
         <v>300</v>
       </c>
@@ -5164,7 +5762,7 @@
       <c r="A160" s="1">
         <v>154</v>
       </c>
-      <c r="B160" s="17">
+      <c r="B160" s="16">
         <v>102</v>
       </c>
       <c r="C160" s="2">
@@ -5176,10 +5774,10 @@
       <c r="E160" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="F160" s="10">
-        <v>1</v>
-      </c>
-      <c r="G160" s="7" t="s">
+      <c r="F160" s="9">
+        <v>1</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H160" s="2">
@@ -5190,7 +5788,7 @@
       <c r="A161" s="1">
         <v>155</v>
       </c>
-      <c r="B161" s="17">
+      <c r="B161" s="16">
         <v>102</v>
       </c>
       <c r="C161" s="2">
@@ -5205,7 +5803,7 @@
       <c r="F161" s="6">
         <v>0</v>
       </c>
-      <c r="G161" s="7"/>
+      <c r="G161" s="2"/>
       <c r="H161" s="2">
         <v>300</v>
       </c>
@@ -5214,7 +5812,7 @@
       <c r="A162" s="1">
         <v>156</v>
       </c>
-      <c r="B162" s="17">
+      <c r="B162" s="16">
         <v>102</v>
       </c>
       <c r="C162" s="2">
@@ -5237,7 +5835,7 @@
       <c r="A163" s="1">
         <v>157</v>
       </c>
-      <c r="B163" s="17">
+      <c r="B163" s="16">
         <v>102</v>
       </c>
       <c r="C163" s="2">
@@ -5249,10 +5847,10 @@
       <c r="E163" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F163" s="10">
-        <v>1</v>
-      </c>
-      <c r="G163" s="7" t="s">
+      <c r="F163" s="9">
+        <v>1</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H163" s="2">
@@ -5263,7 +5861,7 @@
       <c r="A164" s="1">
         <v>158</v>
       </c>
-      <c r="B164" s="17">
+      <c r="B164" s="16">
         <v>102</v>
       </c>
       <c r="C164" s="2">
@@ -5286,7 +5884,7 @@
       <c r="A165" s="1">
         <v>159</v>
       </c>
-      <c r="B165" s="17">
+      <c r="B165" s="16">
         <v>102</v>
       </c>
       <c r="C165" s="2">
@@ -5309,7 +5907,7 @@
       <c r="A166" s="1">
         <v>160</v>
       </c>
-      <c r="B166" s="17">
+      <c r="B166" s="16">
         <v>102</v>
       </c>
       <c r="C166" s="2">
@@ -5321,10 +5919,10 @@
       <c r="E166" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F166" s="10">
-        <v>1</v>
-      </c>
-      <c r="G166" s="7" t="s">
+      <c r="F166" s="9">
+        <v>1</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H166" s="2">
@@ -5333,27 +5931,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J166"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="3" width="6.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="30.83203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="2" customWidth="1"/>
+    <col min="1" max="3" width="6.83333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83333333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.8333333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.8333333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.1666666666667" style="2" customWidth="1"/>
     <col min="9" max="9" width="11" style="2"/>
-    <col min="10" max="10" width="24.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="24.6666666666667" style="2" customWidth="1"/>
     <col min="11" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -5435,7 +6035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
@@ -5459,7 +6059,7 @@
       <c r="F7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="2">
@@ -5479,14 +6079,14 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>267</v>
+      <c r="G8" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H8" s="2">
         <v>300</v>
@@ -5505,13 +6105,13 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>187</v>
+      <c r="E9" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2">
         <v>300</v>
       </c>
@@ -5529,14 +6129,14 @@
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>188</v>
+      <c r="E10" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="F10" s="6">
         <v>0</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
+      <c r="G10" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H10" s="2">
         <v>300</v>
@@ -5555,13 +6155,13 @@
       <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>189</v>
+      <c r="E11" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2">
         <v>300</v>
       </c>
@@ -5579,14 +6179,14 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>190</v>
+      <c r="E12" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>266</v>
+      <c r="G12" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H12" s="2">
         <v>300</v>
@@ -5605,8 +6205,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>191</v>
+      <c r="E13" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F13" s="6">
         <v>0</v>
@@ -5628,8 +6228,8 @@
       <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>192</v>
+      <c r="E14" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="F14" s="6">
         <v>0</v>
@@ -5651,10 +6251,10 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="E15" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="9">
         <v>1</v>
       </c>
       <c r="H15" s="2">
@@ -5671,11 +6271,11 @@
       <c r="C16" s="2">
         <v>10</v>
       </c>
-      <c r="D16" s="11">
-        <v>3</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>194</v>
+      <c r="D16" s="10">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -5684,7 +6284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -5697,8 +6297,8 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>195</v>
+      <c r="E17" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -5710,7 +6310,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -5723,20 +6323,20 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>196</v>
+      <c r="E18" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="F18" s="6">
         <v>0</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>267</v>
+      <c r="G18" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H18" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -5749,18 +6349,18 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>197</v>
+      <c r="E19" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -5773,20 +6373,20 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>268</v>
+      <c r="E20" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F20" s="9">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H20" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -5799,18 +6399,18 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>199</v>
+      <c r="E21" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="F21" s="6">
         <v>0</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -5823,8 +6423,8 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>200</v>
+      <c r="E22" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F22" s="6">
         <v>0</v>
@@ -5833,7 +6433,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -5846,17 +6446,17 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="E23" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" s="9">
         <v>1</v>
       </c>
       <c r="H23" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -5869,8 +6469,8 @@
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" s="9" t="s">
-        <v>202</v>
+      <c r="E24" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="F24" s="6">
         <v>0</v>
@@ -5879,7 +6479,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -5892,8 +6492,8 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>203</v>
+      <c r="E25" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="F25" s="6">
         <v>0</v>
@@ -5902,7 +6502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -5915,8 +6515,8 @@
       <c r="D26">
         <v>3</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>204</v>
+      <c r="E26" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="F26" s="6">
         <v>0</v>
@@ -5925,7 +6525,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -5938,20 +6538,20 @@
       <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="E27" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H27" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -5964,20 +6564,20 @@
       <c r="D28">
         <v>3</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>206</v>
+      <c r="E28" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="F28" s="6">
         <v>0</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>267</v>
+      <c r="G28" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H28" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -5990,13 +6590,13 @@
       <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>207</v>
+      <c r="E29" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="F29" s="6">
         <v>0</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2">
         <v>300</v>
       </c>
@@ -6014,19 +6614,19 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>208</v>
+      <c r="E30" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="F30" s="6">
         <v>0</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2">
         <v>300</v>
       </c>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -6039,20 +6639,20 @@
       <c r="D31">
         <v>3</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>265</v>
+      <c r="E31" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H31" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -6065,8 +6665,8 @@
       <c r="D32">
         <v>3</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>210</v>
+      <c r="E32" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="F32" s="6">
         <v>0</v>
@@ -6088,8 +6688,8 @@
       <c r="D33">
         <v>3</v>
       </c>
-      <c r="E33" s="9" t="s">
-        <v>211</v>
+      <c r="E33" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
@@ -6111,8 +6711,8 @@
       <c r="D34">
         <v>3</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>212</v>
+      <c r="E34" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="F34" s="6">
         <v>0</v>
@@ -6134,14 +6734,14 @@
       <c r="D35">
         <v>3</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>266</v>
+      <c r="E35" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H35" s="2">
         <v>300</v>
@@ -6160,8 +6760,8 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="E36" s="8" t="s">
-        <v>214</v>
+      <c r="E36" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="F36" s="6">
         <v>0</v>
@@ -6183,8 +6783,8 @@
       <c r="D37">
         <v>3</v>
       </c>
-      <c r="E37" s="9" t="s">
-        <v>215</v>
+      <c r="E37" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="F37" s="6">
         <v>0</v>
@@ -6209,14 +6809,14 @@
       <c r="D38">
         <v>3</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>216</v>
+      <c r="E38" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="F38" s="6">
         <v>0</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>267</v>
+      <c r="G38" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H38" s="2">
         <v>300</v>
@@ -6235,13 +6835,13 @@
       <c r="D39">
         <v>3</v>
       </c>
-      <c r="E39" s="9" t="s">
-        <v>217</v>
+      <c r="E39" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="F39" s="6">
         <v>0</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2">
         <v>300</v>
       </c>
@@ -6259,13 +6859,13 @@
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>218</v>
+      <c r="E40" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="F40" s="6">
         <v>0</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2">
         <v>300</v>
       </c>
@@ -6283,14 +6883,14 @@
       <c r="D41">
         <v>3</v>
       </c>
-      <c r="E41" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>268</v>
+      <c r="E41" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H41" s="2">
         <v>300</v>
@@ -6309,8 +6909,8 @@
       <c r="D42">
         <v>3</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>220</v>
+      <c r="E42" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="F42" s="6">
         <v>0</v>
@@ -6332,8 +6932,8 @@
       <c r="D43">
         <v>3</v>
       </c>
-      <c r="E43" s="9" t="s">
-        <v>221</v>
+      <c r="E43" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="F43" s="6">
         <v>0</v>
@@ -6355,8 +6955,8 @@
       <c r="D44">
         <v>3</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>222</v>
+      <c r="E44" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="F44" s="6">
         <v>0</v>
@@ -6378,14 +6978,14 @@
       <c r="D45">
         <v>3</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>265</v>
+      <c r="E45" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H45" s="2">
         <v>300</v>
@@ -6404,8 +7004,8 @@
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46" s="9" t="s">
-        <v>224</v>
+      <c r="E46" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="F46" s="6">
         <v>0</v>
@@ -6427,8 +7027,8 @@
       <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>225</v>
+      <c r="E47" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="F47" s="6">
         <v>0</v>
@@ -6453,20 +7053,20 @@
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F48" s="10">
-        <v>1</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>269</v>
+      <c r="E48" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="H48" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -6479,18 +7079,18 @@
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" s="9" t="s">
-        <v>227</v>
+      <c r="E49" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="F49" s="6">
         <v>0</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>44</v>
       </c>
@@ -6503,18 +7103,18 @@
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="E50" s="9" t="s">
-        <v>228</v>
+      <c r="E50" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F50" s="6">
         <v>0</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -6527,18 +7127,18 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51" s="9" t="s">
-        <v>229</v>
+      <c r="E51" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="F51" s="6">
         <v>0</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -6551,20 +7151,20 @@
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F52" s="10">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>266</v>
+      <c r="E52" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F52" s="9">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H52" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -6577,8 +7177,8 @@
       <c r="D53">
         <v>3</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>231</v>
+      <c r="E53" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="F53" s="6">
         <v>0</v>
@@ -6587,7 +7187,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -6600,14 +7200,14 @@
       <c r="D54">
         <v>3</v>
       </c>
-      <c r="E54" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F54" s="10">
-        <v>1</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>268</v>
+      <c r="E54" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F54" s="9">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H54" s="2">
         <v>300</v>
@@ -6626,8 +7226,8 @@
       <c r="D55">
         <v>3</v>
       </c>
-      <c r="E55" s="9" t="s">
-        <v>233</v>
+      <c r="E55" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="F55" s="6">
         <v>0</v>
@@ -6635,9 +7235,9 @@
       <c r="H55" s="2">
         <v>300</v>
       </c>
-      <c r="J55" s="13"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -6650,8 +7250,8 @@
       <c r="D56">
         <v>3</v>
       </c>
-      <c r="E56" s="9" t="s">
-        <v>234</v>
+      <c r="E56" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="F56" s="6">
         <v>0</v>
@@ -6660,7 +7260,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -6673,8 +7273,8 @@
       <c r="D57">
         <v>3</v>
       </c>
-      <c r="E57" s="9" t="s">
-        <v>235</v>
+      <c r="E57" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="F57" s="6">
         <v>0</v>
@@ -6686,7 +7286,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -6699,20 +7299,20 @@
       <c r="D58">
         <v>3</v>
       </c>
-      <c r="E58" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F58" s="10">
-        <v>1</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>269</v>
+      <c r="E58" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="H58" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -6725,18 +7325,18 @@
       <c r="D59">
         <v>3</v>
       </c>
-      <c r="E59" s="9" t="s">
-        <v>237</v>
+      <c r="E59" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="F59" s="6">
         <v>0</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>54</v>
       </c>
@@ -6749,20 +7349,20 @@
       <c r="D60">
         <v>3</v>
       </c>
-      <c r="E60" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F60" s="10">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>265</v>
+      <c r="E60" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H60" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -6775,18 +7375,18 @@
       <c r="D61">
         <v>3</v>
       </c>
-      <c r="E61" s="9" t="s">
-        <v>239</v>
+      <c r="E61" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="F61" s="6">
         <v>0</v>
       </c>
-      <c r="G61" s="7"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -6799,8 +7399,8 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62" s="9" t="s">
-        <v>240</v>
+      <c r="E62" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="F62" s="6">
         <v>0</v>
@@ -6809,7 +7409,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>57</v>
       </c>
@@ -6822,20 +7422,20 @@
       <c r="D63">
         <v>3</v>
       </c>
-      <c r="E63" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="F63" s="10">
-        <v>1</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>266</v>
+      <c r="E63" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F63" s="9">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H63" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>58</v>
       </c>
@@ -6848,8 +7448,8 @@
       <c r="D64">
         <v>3</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>242</v>
+      <c r="E64" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="F64" s="6">
         <v>0</v>
@@ -6871,14 +7471,14 @@
       <c r="D65">
         <v>3</v>
       </c>
-      <c r="E65" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F65" s="10">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>268</v>
+      <c r="E65" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F65" s="9">
+        <v>1</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H65" s="2">
         <v>300</v>
@@ -6894,11 +7494,11 @@
       <c r="C66" s="2">
         <v>60</v>
       </c>
-      <c r="D66" s="14">
-        <v>3</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>244</v>
+      <c r="D66" s="13">
+        <v>3</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="F66" s="6">
         <v>0</v>
@@ -6920,8 +7520,8 @@
       <c r="D67">
         <v>3</v>
       </c>
-      <c r="E67" s="9" t="s">
-        <v>245</v>
+      <c r="E67" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="F67" s="6">
         <v>0</v>
@@ -6946,13 +7546,13 @@
       <c r="D68">
         <v>3</v>
       </c>
-      <c r="E68" s="9" t="s">
-        <v>246</v>
+      <c r="E68" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="F68" s="6">
         <v>0</v>
       </c>
-      <c r="G68" s="7"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2">
         <v>300</v>
       </c>
@@ -6970,14 +7570,14 @@
       <c r="D69">
         <v>3</v>
       </c>
-      <c r="E69" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F69" s="10">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>267</v>
+      <c r="E69" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F69" s="9">
+        <v>1</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H69" s="2">
         <v>300</v>
@@ -6996,13 +7596,13 @@
       <c r="D70">
         <v>3</v>
       </c>
-      <c r="E70" s="9" t="s">
-        <v>248</v>
+      <c r="E70" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="F70" s="6">
         <v>0</v>
       </c>
-      <c r="G70" s="7"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="2">
         <v>300</v>
       </c>
@@ -7020,13 +7620,13 @@
       <c r="D71">
         <v>3</v>
       </c>
-      <c r="E71" s="9" t="s">
-        <v>249</v>
+      <c r="E71" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="F71" s="6">
         <v>0</v>
       </c>
-      <c r="G71" s="7"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="2">
         <v>300</v>
       </c>
@@ -7044,8 +7644,8 @@
       <c r="D72">
         <v>3</v>
       </c>
-      <c r="E72" s="9" t="s">
-        <v>250</v>
+      <c r="E72" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="F72" s="6">
         <v>0</v>
@@ -7067,14 +7667,14 @@
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F73" s="10">
-        <v>1</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>265</v>
+      <c r="E73" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F73" s="9">
+        <v>1</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H73" s="2">
         <v>300</v>
@@ -7093,8 +7693,8 @@
       <c r="D74">
         <v>3</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>252</v>
+      <c r="E74" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="F74" s="6">
         <v>0</v>
@@ -7116,8 +7716,8 @@
       <c r="D75">
         <v>3</v>
       </c>
-      <c r="E75" s="9" t="s">
-        <v>253</v>
+      <c r="E75" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="F75" s="6">
         <v>0</v>
@@ -7139,8 +7739,8 @@
       <c r="D76">
         <v>3</v>
       </c>
-      <c r="E76" s="9" t="s">
-        <v>254</v>
+      <c r="E76" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="F76" s="6">
         <v>0</v>
@@ -7162,13 +7762,13 @@
       <c r="D77">
         <v>3</v>
       </c>
-      <c r="E77" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F77" s="10">
-        <v>1</v>
-      </c>
-      <c r="G77" s="7" t="s">
+      <c r="E77" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F77" s="9">
+        <v>1</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H77" s="2">
@@ -7188,14 +7788,14 @@
       <c r="D78">
         <v>3</v>
       </c>
-      <c r="E78" s="9" t="s">
-        <v>256</v>
+      <c r="E78" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="F78" s="6">
         <v>0</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>267</v>
+      <c r="G78" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H78" s="2">
         <v>300</v>
@@ -7214,13 +7814,13 @@
       <c r="D79">
         <v>3</v>
       </c>
-      <c r="E79" s="9" t="s">
-        <v>257</v>
+      <c r="E79" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="F79" s="6">
         <v>0</v>
       </c>
-      <c r="G79" s="7"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2">
         <v>300</v>
       </c>
@@ -7238,14 +7838,14 @@
       <c r="D80">
         <v>3</v>
       </c>
-      <c r="E80" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F80" s="10">
-        <v>1</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>266</v>
+      <c r="E80" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F80" s="9">
+        <v>1</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H80" s="2">
         <v>300</v>
@@ -7264,13 +7864,13 @@
       <c r="D81">
         <v>3</v>
       </c>
-      <c r="E81" s="9" t="s">
-        <v>259</v>
+      <c r="E81" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="F81" s="6">
         <v>0</v>
       </c>
-      <c r="G81" s="7"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2">
         <v>300</v>
       </c>
@@ -7288,8 +7888,8 @@
       <c r="D82">
         <v>3</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>260</v>
+      <c r="E82" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F82" s="6">
         <v>0</v>
@@ -7311,14 +7911,14 @@
       <c r="D83">
         <v>3</v>
       </c>
-      <c r="E83" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F83" s="10">
-        <v>1</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>268</v>
+      <c r="E83" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F83" s="9">
+        <v>1</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H83" s="2">
         <v>300</v>
@@ -7337,8 +7937,8 @@
       <c r="D84">
         <v>3</v>
       </c>
-      <c r="E84" s="9" t="s">
-        <v>262</v>
+      <c r="E84" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="F84" s="6">
         <v>0</v>
@@ -7360,8 +7960,8 @@
       <c r="D85">
         <v>3</v>
       </c>
-      <c r="E85" s="9" t="s">
-        <v>263</v>
+      <c r="E85" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="F85" s="6">
         <v>0</v>
@@ -7380,17 +7980,17 @@
       <c r="C86" s="2">
         <v>80</v>
       </c>
-      <c r="D86" s="15">
-        <v>3</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="F86" s="10">
-        <v>1</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>265</v>
+      <c r="D86" s="14">
+        <v>3</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F86" s="9">
+        <v>1</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H86" s="2">
         <v>300</v>
@@ -7400,7 +8000,7 @@
       <c r="A87" s="1">
         <v>81</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="16">
         <v>202</v>
       </c>
       <c r="C87" s="2">
@@ -7415,7 +8015,7 @@
       <c r="F87" s="6">
         <v>0</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H87" s="2">
@@ -7426,7 +8026,7 @@
       <c r="A88" s="1">
         <v>82</v>
       </c>
-      <c r="B88" s="17">
+      <c r="B88" s="16">
         <v>202</v>
       </c>
       <c r="C88" s="2">
@@ -7435,14 +8035,14 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>186</v>
       </c>
       <c r="F88" s="6">
         <v>0</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>267</v>
+      <c r="G88" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H88" s="2">
         <v>300</v>
@@ -7452,7 +8052,7 @@
       <c r="A89" s="1">
         <v>83</v>
       </c>
-      <c r="B89" s="17">
+      <c r="B89" s="16">
         <v>202</v>
       </c>
       <c r="C89" s="2">
@@ -7461,13 +8061,13 @@
       <c r="D89">
         <v>2</v>
       </c>
-      <c r="E89" s="9" t="s">
-        <v>187</v>
+      <c r="E89" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="F89" s="6">
         <v>0</v>
       </c>
-      <c r="G89" s="7"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="2">
         <v>300</v>
       </c>
@@ -7476,7 +8076,7 @@
       <c r="A90" s="1">
         <v>84</v>
       </c>
-      <c r="B90" s="17">
+      <c r="B90" s="16">
         <v>202</v>
       </c>
       <c r="C90" s="2">
@@ -7485,14 +8085,14 @@
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90" s="9" t="s">
-        <v>188</v>
+      <c r="E90" s="8" t="s">
+        <v>189</v>
       </c>
       <c r="F90" s="6">
         <v>0</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>265</v>
+      <c r="G90" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H90" s="2">
         <v>300</v>
@@ -7502,7 +8102,7 @@
       <c r="A91" s="1">
         <v>85</v>
       </c>
-      <c r="B91" s="17">
+      <c r="B91" s="16">
         <v>202</v>
       </c>
       <c r="C91" s="2">
@@ -7511,13 +8111,13 @@
       <c r="D91">
         <v>3</v>
       </c>
-      <c r="E91" s="9" t="s">
-        <v>189</v>
+      <c r="E91" s="8" t="s">
+        <v>191</v>
       </c>
       <c r="F91" s="6">
         <v>0</v>
       </c>
-      <c r="G91" s="7"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="2">
         <v>300</v>
       </c>
@@ -7526,7 +8126,7 @@
       <c r="A92" s="1">
         <v>86</v>
       </c>
-      <c r="B92" s="17">
+      <c r="B92" s="16">
         <v>202</v>
       </c>
       <c r="C92" s="2">
@@ -7535,14 +8135,14 @@
       <c r="D92">
         <v>3</v>
       </c>
-      <c r="E92" s="9" t="s">
-        <v>190</v>
+      <c r="E92" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="F92" s="6">
         <v>0</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>266</v>
+      <c r="G92" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H92" s="2">
         <v>300</v>
@@ -7552,7 +8152,7 @@
       <c r="A93" s="1">
         <v>87</v>
       </c>
-      <c r="B93" s="17">
+      <c r="B93" s="16">
         <v>202</v>
       </c>
       <c r="C93" s="2">
@@ -7561,8 +8161,8 @@
       <c r="D93">
         <v>3</v>
       </c>
-      <c r="E93" s="9" t="s">
-        <v>191</v>
+      <c r="E93" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="F93" s="6">
         <v>0</v>
@@ -7575,7 +8175,7 @@
       <c r="A94" s="1">
         <v>88</v>
       </c>
-      <c r="B94" s="17">
+      <c r="B94" s="16">
         <v>202</v>
       </c>
       <c r="C94" s="2">
@@ -7584,8 +8184,8 @@
       <c r="D94">
         <v>3</v>
       </c>
-      <c r="E94" s="9" t="s">
-        <v>192</v>
+      <c r="E94" s="8" t="s">
+        <v>195</v>
       </c>
       <c r="F94" s="6">
         <v>0</v>
@@ -7598,7 +8198,7 @@
       <c r="A95" s="1">
         <v>89</v>
       </c>
-      <c r="B95" s="17">
+      <c r="B95" s="16">
         <v>202</v>
       </c>
       <c r="C95" s="2">
@@ -7607,10 +8207,10 @@
       <c r="D95">
         <v>3</v>
       </c>
-      <c r="E95" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F95" s="10">
+      <c r="E95" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F95" s="9">
         <v>1</v>
       </c>
       <c r="H95" s="2">
@@ -7621,17 +8221,17 @@
       <c r="A96" s="1">
         <v>90</v>
       </c>
-      <c r="B96" s="17">
+      <c r="B96" s="16">
         <v>202</v>
       </c>
       <c r="C96" s="2">
         <v>10</v>
       </c>
-      <c r="D96" s="11">
-        <v>3</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>194</v>
+      <c r="D96" s="10">
+        <v>3</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>197</v>
       </c>
       <c r="F96" s="6">
         <v>0</v>
@@ -7644,7 +8244,7 @@
       <c r="A97" s="1">
         <v>91</v>
       </c>
-      <c r="B97" s="17">
+      <c r="B97" s="16">
         <v>202</v>
       </c>
       <c r="C97" s="2">
@@ -7653,8 +8253,8 @@
       <c r="D97">
         <v>3</v>
       </c>
-      <c r="E97" s="9" t="s">
-        <v>195</v>
+      <c r="E97" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="F97" s="6">
         <v>0</v>
@@ -7670,7 +8270,7 @@
       <c r="A98" s="1">
         <v>92</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="16">
         <v>202</v>
       </c>
       <c r="C98" s="2">
@@ -7679,14 +8279,14 @@
       <c r="D98">
         <v>3</v>
       </c>
-      <c r="E98" s="9" t="s">
-        <v>196</v>
+      <c r="E98" s="8" t="s">
+        <v>199</v>
       </c>
       <c r="F98" s="6">
         <v>0</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>267</v>
+      <c r="G98" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H98" s="2">
         <v>300</v>
@@ -7696,7 +8296,7 @@
       <c r="A99" s="1">
         <v>93</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="16">
         <v>202</v>
       </c>
       <c r="C99" s="2">
@@ -7705,13 +8305,13 @@
       <c r="D99">
         <v>3</v>
       </c>
-      <c r="E99" s="9" t="s">
-        <v>197</v>
+      <c r="E99" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="F99" s="6">
         <v>0</v>
       </c>
-      <c r="G99" s="7"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="2">
         <v>300</v>
       </c>
@@ -7720,7 +8320,7 @@
       <c r="A100" s="1">
         <v>94</v>
       </c>
-      <c r="B100" s="17">
+      <c r="B100" s="16">
         <v>202</v>
       </c>
       <c r="C100" s="2">
@@ -7729,14 +8329,14 @@
       <c r="D100">
         <v>3</v>
       </c>
-      <c r="E100" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F100" s="10">
-        <v>1</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>268</v>
+      <c r="E100" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F100" s="9">
+        <v>1</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H100" s="2">
         <v>300</v>
@@ -7746,7 +8346,7 @@
       <c r="A101" s="1">
         <v>95</v>
       </c>
-      <c r="B101" s="17">
+      <c r="B101" s="16">
         <v>202</v>
       </c>
       <c r="C101" s="2">
@@ -7755,13 +8355,13 @@
       <c r="D101">
         <v>3</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>199</v>
+      <c r="E101" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="F101" s="6">
         <v>0</v>
       </c>
-      <c r="G101" s="7"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="2">
         <v>300</v>
       </c>
@@ -7770,7 +8370,7 @@
       <c r="A102" s="1">
         <v>96</v>
       </c>
-      <c r="B102" s="17">
+      <c r="B102" s="16">
         <v>202</v>
       </c>
       <c r="C102" s="2">
@@ -7779,8 +8379,8 @@
       <c r="D102">
         <v>3</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>200</v>
+      <c r="E102" s="8" t="s">
+        <v>204</v>
       </c>
       <c r="F102" s="6">
         <v>0</v>
@@ -7793,7 +8393,7 @@
       <c r="A103" s="1">
         <v>97</v>
       </c>
-      <c r="B103" s="17">
+      <c r="B103" s="16">
         <v>202</v>
       </c>
       <c r="C103" s="2">
@@ -7802,10 +8402,10 @@
       <c r="D103">
         <v>3</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F103" s="10">
+      <c r="E103" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F103" s="9">
         <v>1</v>
       </c>
       <c r="H103" s="2">
@@ -7816,7 +8416,7 @@
       <c r="A104" s="1">
         <v>98</v>
       </c>
-      <c r="B104" s="17">
+      <c r="B104" s="16">
         <v>202</v>
       </c>
       <c r="C104" s="2">
@@ -7825,8 +8425,8 @@
       <c r="D104">
         <v>3</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>202</v>
+      <c r="E104" s="8" t="s">
+        <v>206</v>
       </c>
       <c r="F104" s="6">
         <v>0</v>
@@ -7839,7 +8439,7 @@
       <c r="A105" s="1">
         <v>99</v>
       </c>
-      <c r="B105" s="17">
+      <c r="B105" s="16">
         <v>202</v>
       </c>
       <c r="C105" s="2">
@@ -7848,8 +8448,8 @@
       <c r="D105">
         <v>3</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>203</v>
+      <c r="E105" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="F105" s="6">
         <v>0</v>
@@ -7862,7 +8462,7 @@
       <c r="A106" s="1">
         <v>100</v>
       </c>
-      <c r="B106" s="17">
+      <c r="B106" s="16">
         <v>202</v>
       </c>
       <c r="C106" s="2">
@@ -7871,8 +8471,8 @@
       <c r="D106">
         <v>3</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>204</v>
+      <c r="E106" s="8" t="s">
+        <v>208</v>
       </c>
       <c r="F106" s="6">
         <v>0</v>
@@ -7885,7 +8485,7 @@
       <c r="A107" s="1">
         <v>101</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="16">
         <v>202</v>
       </c>
       <c r="C107" s="2">
@@ -7894,13 +8494,13 @@
       <c r="D107">
         <v>3</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="F107" s="10">
-        <v>1</v>
-      </c>
-      <c r="G107" s="7" t="s">
+      <c r="E107" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F107" s="9">
+        <v>1</v>
+      </c>
+      <c r="G107" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H107" s="2">
@@ -7911,7 +8511,7 @@
       <c r="A108" s="1">
         <v>102</v>
       </c>
-      <c r="B108" s="17">
+      <c r="B108" s="16">
         <v>202</v>
       </c>
       <c r="C108" s="2">
@@ -7920,14 +8520,14 @@
       <c r="D108">
         <v>3</v>
       </c>
-      <c r="E108" s="9" t="s">
-        <v>206</v>
+      <c r="E108" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="F108" s="6">
         <v>0</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>267</v>
+      <c r="G108" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H108" s="2">
         <v>300</v>
@@ -7937,7 +8537,7 @@
       <c r="A109" s="1">
         <v>103</v>
       </c>
-      <c r="B109" s="17">
+      <c r="B109" s="16">
         <v>202</v>
       </c>
       <c r="C109" s="2">
@@ -7946,13 +8546,13 @@
       <c r="D109">
         <v>3</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>207</v>
+      <c r="E109" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="F109" s="6">
         <v>0</v>
       </c>
-      <c r="G109" s="7"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="2">
         <v>300</v>
       </c>
@@ -7961,7 +8561,7 @@
       <c r="A110" s="1">
         <v>104</v>
       </c>
-      <c r="B110" s="17">
+      <c r="B110" s="16">
         <v>202</v>
       </c>
       <c r="C110" s="2">
@@ -7970,13 +8570,13 @@
       <c r="D110">
         <v>3</v>
       </c>
-      <c r="E110" s="9" t="s">
-        <v>208</v>
+      <c r="E110" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="F110" s="6">
         <v>0</v>
       </c>
-      <c r="G110" s="7"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="2">
         <v>300</v>
       </c>
@@ -7985,7 +8585,7 @@
       <c r="A111" s="1">
         <v>105</v>
       </c>
-      <c r="B111" s="17">
+      <c r="B111" s="16">
         <v>202</v>
       </c>
       <c r="C111" s="2">
@@ -7994,14 +8594,14 @@
       <c r="D111">
         <v>3</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F111" s="10">
-        <v>1</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>265</v>
+      <c r="E111" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" s="9">
+        <v>1</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H111" s="2">
         <v>300</v>
@@ -8011,7 +8611,7 @@
       <c r="A112" s="1">
         <v>106</v>
       </c>
-      <c r="B112" s="17">
+      <c r="B112" s="16">
         <v>202</v>
       </c>
       <c r="C112" s="2">
@@ -8020,8 +8620,8 @@
       <c r="D112">
         <v>3</v>
       </c>
-      <c r="E112" s="9" t="s">
-        <v>210</v>
+      <c r="E112" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="F112" s="6">
         <v>0</v>
@@ -8034,7 +8634,7 @@
       <c r="A113" s="1">
         <v>107</v>
       </c>
-      <c r="B113" s="17">
+      <c r="B113" s="16">
         <v>202</v>
       </c>
       <c r="C113" s="2">
@@ -8043,8 +8643,8 @@
       <c r="D113">
         <v>3</v>
       </c>
-      <c r="E113" s="9" t="s">
-        <v>211</v>
+      <c r="E113" s="8" t="s">
+        <v>215</v>
       </c>
       <c r="F113" s="6">
         <v>0</v>
@@ -8057,7 +8657,7 @@
       <c r="A114" s="1">
         <v>108</v>
       </c>
-      <c r="B114" s="17">
+      <c r="B114" s="16">
         <v>202</v>
       </c>
       <c r="C114" s="2">
@@ -8066,8 +8666,8 @@
       <c r="D114">
         <v>3</v>
       </c>
-      <c r="E114" s="9" t="s">
-        <v>212</v>
+      <c r="E114" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="F114" s="6">
         <v>0</v>
@@ -8080,7 +8680,7 @@
       <c r="A115" s="1">
         <v>109</v>
       </c>
-      <c r="B115" s="17">
+      <c r="B115" s="16">
         <v>202</v>
       </c>
       <c r="C115" s="2">
@@ -8089,14 +8689,14 @@
       <c r="D115">
         <v>3</v>
       </c>
-      <c r="E115" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F115" s="10">
-        <v>1</v>
-      </c>
-      <c r="G115" s="7" t="s">
-        <v>266</v>
+      <c r="E115" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F115" s="9">
+        <v>1</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H115" s="2">
         <v>300</v>
@@ -8106,7 +8706,7 @@
       <c r="A116" s="1">
         <v>110</v>
       </c>
-      <c r="B116" s="17">
+      <c r="B116" s="16">
         <v>202</v>
       </c>
       <c r="C116" s="2">
@@ -8115,8 +8715,8 @@
       <c r="D116">
         <v>3</v>
       </c>
-      <c r="E116" s="8" t="s">
-        <v>214</v>
+      <c r="E116" s="7" t="s">
+        <v>218</v>
       </c>
       <c r="F116" s="6">
         <v>0</v>
@@ -8129,7 +8729,7 @@
       <c r="A117" s="1">
         <v>111</v>
       </c>
-      <c r="B117" s="17">
+      <c r="B117" s="16">
         <v>202</v>
       </c>
       <c r="C117" s="2">
@@ -8138,8 +8738,8 @@
       <c r="D117">
         <v>3</v>
       </c>
-      <c r="E117" s="9" t="s">
-        <v>215</v>
+      <c r="E117" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="F117" s="6">
         <v>0</v>
@@ -8155,7 +8755,7 @@
       <c r="A118" s="1">
         <v>112</v>
       </c>
-      <c r="B118" s="17">
+      <c r="B118" s="16">
         <v>202</v>
       </c>
       <c r="C118" s="2">
@@ -8164,14 +8764,14 @@
       <c r="D118">
         <v>3</v>
       </c>
-      <c r="E118" s="9" t="s">
-        <v>216</v>
+      <c r="E118" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="F118" s="6">
         <v>0</v>
       </c>
-      <c r="G118" s="7" t="s">
-        <v>267</v>
+      <c r="G118" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H118" s="2">
         <v>300</v>
@@ -8181,7 +8781,7 @@
       <c r="A119" s="1">
         <v>113</v>
       </c>
-      <c r="B119" s="17">
+      <c r="B119" s="16">
         <v>202</v>
       </c>
       <c r="C119" s="2">
@@ -8190,13 +8790,13 @@
       <c r="D119">
         <v>3</v>
       </c>
-      <c r="E119" s="9" t="s">
-        <v>217</v>
+      <c r="E119" s="8" t="s">
+        <v>221</v>
       </c>
       <c r="F119" s="6">
         <v>0</v>
       </c>
-      <c r="G119" s="7"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="2">
         <v>300</v>
       </c>
@@ -8205,7 +8805,7 @@
       <c r="A120" s="1">
         <v>114</v>
       </c>
-      <c r="B120" s="17">
+      <c r="B120" s="16">
         <v>202</v>
       </c>
       <c r="C120" s="2">
@@ -8214,13 +8814,13 @@
       <c r="D120">
         <v>3</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>218</v>
+      <c r="E120" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="F120" s="6">
         <v>0</v>
       </c>
-      <c r="G120" s="7"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="2">
         <v>300</v>
       </c>
@@ -8229,7 +8829,7 @@
       <c r="A121" s="1">
         <v>115</v>
       </c>
-      <c r="B121" s="17">
+      <c r="B121" s="16">
         <v>202</v>
       </c>
       <c r="C121" s="2">
@@ -8238,14 +8838,14 @@
       <c r="D121">
         <v>3</v>
       </c>
-      <c r="E121" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="F121" s="10">
-        <v>1</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>268</v>
+      <c r="E121" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F121" s="9">
+        <v>1</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H121" s="2">
         <v>300</v>
@@ -8255,7 +8855,7 @@
       <c r="A122" s="1">
         <v>116</v>
       </c>
-      <c r="B122" s="17">
+      <c r="B122" s="16">
         <v>202</v>
       </c>
       <c r="C122" s="2">
@@ -8264,8 +8864,8 @@
       <c r="D122">
         <v>3</v>
       </c>
-      <c r="E122" s="9" t="s">
-        <v>220</v>
+      <c r="E122" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="F122" s="6">
         <v>0</v>
@@ -8278,7 +8878,7 @@
       <c r="A123" s="1">
         <v>117</v>
       </c>
-      <c r="B123" s="17">
+      <c r="B123" s="16">
         <v>202</v>
       </c>
       <c r="C123" s="2">
@@ -8287,8 +8887,8 @@
       <c r="D123">
         <v>3</v>
       </c>
-      <c r="E123" s="9" t="s">
-        <v>221</v>
+      <c r="E123" s="8" t="s">
+        <v>225</v>
       </c>
       <c r="F123" s="6">
         <v>0</v>
@@ -8301,7 +8901,7 @@
       <c r="A124" s="1">
         <v>118</v>
       </c>
-      <c r="B124" s="17">
+      <c r="B124" s="16">
         <v>202</v>
       </c>
       <c r="C124" s="2">
@@ -8310,8 +8910,8 @@
       <c r="D124">
         <v>3</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>222</v>
+      <c r="E124" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="F124" s="6">
         <v>0</v>
@@ -8324,7 +8924,7 @@
       <c r="A125" s="1">
         <v>119</v>
       </c>
-      <c r="B125" s="17">
+      <c r="B125" s="16">
         <v>202</v>
       </c>
       <c r="C125" s="2">
@@ -8333,14 +8933,14 @@
       <c r="D125">
         <v>3</v>
       </c>
-      <c r="E125" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F125" s="10">
-        <v>1</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>265</v>
+      <c r="E125" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F125" s="9">
+        <v>1</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H125" s="2">
         <v>300</v>
@@ -8350,7 +8950,7 @@
       <c r="A126" s="1">
         <v>120</v>
       </c>
-      <c r="B126" s="17">
+      <c r="B126" s="16">
         <v>202</v>
       </c>
       <c r="C126" s="2">
@@ -8359,8 +8959,8 @@
       <c r="D126">
         <v>3</v>
       </c>
-      <c r="E126" s="9" t="s">
-        <v>224</v>
+      <c r="E126" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="F126" s="6">
         <v>0</v>
@@ -8373,7 +8973,7 @@
       <c r="A127" s="1">
         <v>121</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="16">
         <v>202</v>
       </c>
       <c r="C127" s="2">
@@ -8382,8 +8982,8 @@
       <c r="D127">
         <v>3</v>
       </c>
-      <c r="E127" s="9" t="s">
-        <v>225</v>
+      <c r="E127" s="8" t="s">
+        <v>229</v>
       </c>
       <c r="F127" s="6">
         <v>0</v>
@@ -8399,7 +8999,7 @@
       <c r="A128" s="1">
         <v>122</v>
       </c>
-      <c r="B128" s="17">
+      <c r="B128" s="16">
         <v>202</v>
       </c>
       <c r="C128" s="2">
@@ -8408,14 +9008,14 @@
       <c r="D128">
         <v>3</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F128" s="10">
-        <v>1</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>269</v>
+      <c r="E128" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F128" s="9">
+        <v>1</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="H128" s="2">
         <v>300</v>
@@ -8425,7 +9025,7 @@
       <c r="A129" s="1">
         <v>123</v>
       </c>
-      <c r="B129" s="17">
+      <c r="B129" s="16">
         <v>202</v>
       </c>
       <c r="C129" s="2">
@@ -8434,13 +9034,13 @@
       <c r="D129">
         <v>3</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>227</v>
+      <c r="E129" s="8" t="s">
+        <v>232</v>
       </c>
       <c r="F129" s="6">
         <v>0</v>
       </c>
-      <c r="G129" s="7"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="2">
         <v>300</v>
       </c>
@@ -8449,7 +9049,7 @@
       <c r="A130" s="1">
         <v>124</v>
       </c>
-      <c r="B130" s="17">
+      <c r="B130" s="16">
         <v>202</v>
       </c>
       <c r="C130" s="2">
@@ -8458,13 +9058,13 @@
       <c r="D130">
         <v>3</v>
       </c>
-      <c r="E130" s="9" t="s">
-        <v>228</v>
+      <c r="E130" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="F130" s="6">
         <v>0</v>
       </c>
-      <c r="G130" s="7"/>
+      <c r="G130" s="2"/>
       <c r="H130" s="2">
         <v>300</v>
       </c>
@@ -8473,7 +9073,7 @@
       <c r="A131" s="1">
         <v>125</v>
       </c>
-      <c r="B131" s="17">
+      <c r="B131" s="16">
         <v>202</v>
       </c>
       <c r="C131" s="2">
@@ -8482,13 +9082,13 @@
       <c r="D131">
         <v>3</v>
       </c>
-      <c r="E131" s="9" t="s">
-        <v>229</v>
+      <c r="E131" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="F131" s="6">
         <v>0</v>
       </c>
-      <c r="G131" s="7"/>
+      <c r="G131" s="2"/>
       <c r="H131" s="2">
         <v>300</v>
       </c>
@@ -8497,7 +9097,7 @@
       <c r="A132" s="1">
         <v>126</v>
       </c>
-      <c r="B132" s="17">
+      <c r="B132" s="16">
         <v>202</v>
       </c>
       <c r="C132" s="2">
@@ -8506,14 +9106,14 @@
       <c r="D132">
         <v>3</v>
       </c>
-      <c r="E132" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="F132" s="10">
-        <v>1</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>266</v>
+      <c r="E132" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F132" s="9">
+        <v>1</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H132" s="2">
         <v>300</v>
@@ -8523,7 +9123,7 @@
       <c r="A133" s="1">
         <v>127</v>
       </c>
-      <c r="B133" s="17">
+      <c r="B133" s="16">
         <v>202</v>
       </c>
       <c r="C133" s="2">
@@ -8532,8 +9132,8 @@
       <c r="D133">
         <v>3</v>
       </c>
-      <c r="E133" s="9" t="s">
-        <v>231</v>
+      <c r="E133" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="F133" s="6">
         <v>0</v>
@@ -8546,7 +9146,7 @@
       <c r="A134" s="1">
         <v>128</v>
       </c>
-      <c r="B134" s="17">
+      <c r="B134" s="16">
         <v>202</v>
       </c>
       <c r="C134" s="2">
@@ -8555,14 +9155,14 @@
       <c r="D134">
         <v>3</v>
       </c>
-      <c r="E134" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F134" s="10">
-        <v>1</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>268</v>
+      <c r="E134" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F134" s="9">
+        <v>1</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H134" s="2">
         <v>300</v>
@@ -8572,7 +9172,7 @@
       <c r="A135" s="1">
         <v>129</v>
       </c>
-      <c r="B135" s="17">
+      <c r="B135" s="16">
         <v>202</v>
       </c>
       <c r="C135" s="2">
@@ -8581,8 +9181,8 @@
       <c r="D135">
         <v>3</v>
       </c>
-      <c r="E135" s="9" t="s">
-        <v>233</v>
+      <c r="E135" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="F135" s="6">
         <v>0</v>
@@ -8595,7 +9195,7 @@
       <c r="A136" s="1">
         <v>130</v>
       </c>
-      <c r="B136" s="17">
+      <c r="B136" s="16">
         <v>202</v>
       </c>
       <c r="C136" s="2">
@@ -8604,8 +9204,8 @@
       <c r="D136">
         <v>3</v>
       </c>
-      <c r="E136" s="9" t="s">
-        <v>234</v>
+      <c r="E136" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="F136" s="6">
         <v>0</v>
@@ -8618,7 +9218,7 @@
       <c r="A137" s="1">
         <v>131</v>
       </c>
-      <c r="B137" s="17">
+      <c r="B137" s="16">
         <v>202</v>
       </c>
       <c r="C137" s="2">
@@ -8627,8 +9227,8 @@
       <c r="D137">
         <v>3</v>
       </c>
-      <c r="E137" s="9" t="s">
-        <v>235</v>
+      <c r="E137" s="8" t="s">
+        <v>240</v>
       </c>
       <c r="F137" s="6">
         <v>0</v>
@@ -8644,7 +9244,7 @@
       <c r="A138" s="1">
         <v>132</v>
       </c>
-      <c r="B138" s="17">
+      <c r="B138" s="16">
         <v>202</v>
       </c>
       <c r="C138" s="2">
@@ -8653,14 +9253,14 @@
       <c r="D138">
         <v>3</v>
       </c>
-      <c r="E138" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F138" s="10">
-        <v>1</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>269</v>
+      <c r="E138" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F138" s="9">
+        <v>1</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>231</v>
       </c>
       <c r="H138" s="2">
         <v>300</v>
@@ -8670,7 +9270,7 @@
       <c r="A139" s="1">
         <v>133</v>
       </c>
-      <c r="B139" s="17">
+      <c r="B139" s="16">
         <v>202</v>
       </c>
       <c r="C139" s="2">
@@ -8679,13 +9279,13 @@
       <c r="D139">
         <v>3</v>
       </c>
-      <c r="E139" s="9" t="s">
-        <v>237</v>
+      <c r="E139" s="8" t="s">
+        <v>242</v>
       </c>
       <c r="F139" s="6">
         <v>0</v>
       </c>
-      <c r="G139" s="7"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="2">
         <v>300</v>
       </c>
@@ -8694,7 +9294,7 @@
       <c r="A140" s="1">
         <v>134</v>
       </c>
-      <c r="B140" s="17">
+      <c r="B140" s="16">
         <v>202</v>
       </c>
       <c r="C140" s="2">
@@ -8703,14 +9303,14 @@
       <c r="D140">
         <v>3</v>
       </c>
-      <c r="E140" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F140" s="10">
-        <v>1</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>265</v>
+      <c r="E140" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F140" s="9">
+        <v>1</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H140" s="2">
         <v>300</v>
@@ -8720,7 +9320,7 @@
       <c r="A141" s="1">
         <v>135</v>
       </c>
-      <c r="B141" s="17">
+      <c r="B141" s="16">
         <v>202</v>
       </c>
       <c r="C141" s="2">
@@ -8729,13 +9329,13 @@
       <c r="D141">
         <v>3</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>239</v>
+      <c r="E141" s="8" t="s">
+        <v>244</v>
       </c>
       <c r="F141" s="6">
         <v>0</v>
       </c>
-      <c r="G141" s="7"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="2">
         <v>300</v>
       </c>
@@ -8744,7 +9344,7 @@
       <c r="A142" s="1">
         <v>136</v>
       </c>
-      <c r="B142" s="17">
+      <c r="B142" s="16">
         <v>202</v>
       </c>
       <c r="C142" s="2">
@@ -8753,8 +9353,8 @@
       <c r="D142">
         <v>3</v>
       </c>
-      <c r="E142" s="9" t="s">
-        <v>240</v>
+      <c r="E142" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="F142" s="6">
         <v>0</v>
@@ -8767,7 +9367,7 @@
       <c r="A143" s="1">
         <v>137</v>
       </c>
-      <c r="B143" s="17">
+      <c r="B143" s="16">
         <v>202</v>
       </c>
       <c r="C143" s="2">
@@ -8776,14 +9376,14 @@
       <c r="D143">
         <v>3</v>
       </c>
-      <c r="E143" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="F143" s="10">
-        <v>1</v>
-      </c>
-      <c r="G143" s="7" t="s">
-        <v>266</v>
+      <c r="E143" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H143" s="2">
         <v>300</v>
@@ -8793,7 +9393,7 @@
       <c r="A144" s="1">
         <v>138</v>
       </c>
-      <c r="B144" s="17">
+      <c r="B144" s="16">
         <v>202</v>
       </c>
       <c r="C144" s="2">
@@ -8802,8 +9402,8 @@
       <c r="D144">
         <v>3</v>
       </c>
-      <c r="E144" s="9" t="s">
-        <v>242</v>
+      <c r="E144" s="8" t="s">
+        <v>247</v>
       </c>
       <c r="F144" s="6">
         <v>0</v>
@@ -8816,7 +9416,7 @@
       <c r="A145" s="1">
         <v>139</v>
       </c>
-      <c r="B145" s="17">
+      <c r="B145" s="16">
         <v>202</v>
       </c>
       <c r="C145" s="2">
@@ -8825,14 +9425,14 @@
       <c r="D145">
         <v>3</v>
       </c>
-      <c r="E145" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F145" s="10">
-        <v>1</v>
-      </c>
-      <c r="G145" s="7" t="s">
-        <v>268</v>
+      <c r="E145" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F145" s="9">
+        <v>1</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H145" s="2">
         <v>300</v>
@@ -8842,17 +9442,17 @@
       <c r="A146" s="1">
         <v>140</v>
       </c>
-      <c r="B146" s="17">
+      <c r="B146" s="16">
         <v>202</v>
       </c>
       <c r="C146" s="2">
         <v>60</v>
       </c>
-      <c r="D146" s="14">
-        <v>3</v>
-      </c>
-      <c r="E146" s="9" t="s">
-        <v>244</v>
+      <c r="D146" s="13">
+        <v>3</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="F146" s="6">
         <v>0</v>
@@ -8865,7 +9465,7 @@
       <c r="A147" s="1">
         <v>141</v>
       </c>
-      <c r="B147" s="17">
+      <c r="B147" s="16">
         <v>202</v>
       </c>
       <c r="C147" s="2">
@@ -8874,8 +9474,8 @@
       <c r="D147">
         <v>3</v>
       </c>
-      <c r="E147" s="9" t="s">
-        <v>245</v>
+      <c r="E147" s="8" t="s">
+        <v>250</v>
       </c>
       <c r="F147" s="6">
         <v>0</v>
@@ -8891,7 +9491,7 @@
       <c r="A148" s="1">
         <v>142</v>
       </c>
-      <c r="B148" s="17">
+      <c r="B148" s="16">
         <v>202</v>
       </c>
       <c r="C148" s="2">
@@ -8900,13 +9500,13 @@
       <c r="D148">
         <v>3</v>
       </c>
-      <c r="E148" s="9" t="s">
-        <v>246</v>
+      <c r="E148" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="F148" s="6">
         <v>0</v>
       </c>
-      <c r="G148" s="7"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="2">
         <v>300</v>
       </c>
@@ -8915,7 +9515,7 @@
       <c r="A149" s="1">
         <v>143</v>
       </c>
-      <c r="B149" s="17">
+      <c r="B149" s="16">
         <v>202</v>
       </c>
       <c r="C149" s="2">
@@ -8924,14 +9524,14 @@
       <c r="D149">
         <v>3</v>
       </c>
-      <c r="E149" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F149" s="10">
-        <v>1</v>
-      </c>
-      <c r="G149" s="7" t="s">
-        <v>267</v>
+      <c r="E149" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F149" s="9">
+        <v>1</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H149" s="2">
         <v>300</v>
@@ -8941,7 +9541,7 @@
       <c r="A150" s="1">
         <v>144</v>
       </c>
-      <c r="B150" s="17">
+      <c r="B150" s="16">
         <v>202</v>
       </c>
       <c r="C150" s="2">
@@ -8950,13 +9550,13 @@
       <c r="D150">
         <v>3</v>
       </c>
-      <c r="E150" s="9" t="s">
-        <v>248</v>
+      <c r="E150" s="8" t="s">
+        <v>253</v>
       </c>
       <c r="F150" s="6">
         <v>0</v>
       </c>
-      <c r="G150" s="7"/>
+      <c r="G150" s="2"/>
       <c r="H150" s="2">
         <v>300</v>
       </c>
@@ -8965,7 +9565,7 @@
       <c r="A151" s="1">
         <v>145</v>
       </c>
-      <c r="B151" s="17">
+      <c r="B151" s="16">
         <v>202</v>
       </c>
       <c r="C151" s="2">
@@ -8974,13 +9574,13 @@
       <c r="D151">
         <v>3</v>
       </c>
-      <c r="E151" s="9" t="s">
-        <v>249</v>
+      <c r="E151" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="F151" s="6">
         <v>0</v>
       </c>
-      <c r="G151" s="7"/>
+      <c r="G151" s="2"/>
       <c r="H151" s="2">
         <v>300</v>
       </c>
@@ -8989,7 +9589,7 @@
       <c r="A152" s="1">
         <v>146</v>
       </c>
-      <c r="B152" s="17">
+      <c r="B152" s="16">
         <v>202</v>
       </c>
       <c r="C152" s="2">
@@ -8998,8 +9598,8 @@
       <c r="D152">
         <v>3</v>
       </c>
-      <c r="E152" s="9" t="s">
-        <v>250</v>
+      <c r="E152" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="F152" s="6">
         <v>0</v>
@@ -9012,7 +9612,7 @@
       <c r="A153" s="1">
         <v>147</v>
       </c>
-      <c r="B153" s="17">
+      <c r="B153" s="16">
         <v>202</v>
       </c>
       <c r="C153" s="2">
@@ -9021,14 +9621,14 @@
       <c r="D153">
         <v>3</v>
       </c>
-      <c r="E153" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F153" s="10">
-        <v>1</v>
-      </c>
-      <c r="G153" s="7" t="s">
-        <v>265</v>
+      <c r="E153" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F153" s="9">
+        <v>1</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H153" s="2">
         <v>300</v>
@@ -9038,7 +9638,7 @@
       <c r="A154" s="1">
         <v>148</v>
       </c>
-      <c r="B154" s="17">
+      <c r="B154" s="16">
         <v>202</v>
       </c>
       <c r="C154" s="2">
@@ -9047,8 +9647,8 @@
       <c r="D154">
         <v>3</v>
       </c>
-      <c r="E154" s="9" t="s">
-        <v>252</v>
+      <c r="E154" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="F154" s="6">
         <v>0</v>
@@ -9061,7 +9661,7 @@
       <c r="A155" s="1">
         <v>149</v>
       </c>
-      <c r="B155" s="17">
+      <c r="B155" s="16">
         <v>202</v>
       </c>
       <c r="C155" s="2">
@@ -9070,8 +9670,8 @@
       <c r="D155">
         <v>3</v>
       </c>
-      <c r="E155" s="9" t="s">
-        <v>253</v>
+      <c r="E155" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="F155" s="6">
         <v>0</v>
@@ -9084,7 +9684,7 @@
       <c r="A156" s="1">
         <v>150</v>
       </c>
-      <c r="B156" s="17">
+      <c r="B156" s="16">
         <v>202</v>
       </c>
       <c r="C156" s="2">
@@ -9093,8 +9693,8 @@
       <c r="D156">
         <v>3</v>
       </c>
-      <c r="E156" s="9" t="s">
-        <v>254</v>
+      <c r="E156" s="8" t="s">
+        <v>259</v>
       </c>
       <c r="F156" s="6">
         <v>0</v>
@@ -9107,7 +9707,7 @@
       <c r="A157" s="1">
         <v>151</v>
       </c>
-      <c r="B157" s="17">
+      <c r="B157" s="16">
         <v>202</v>
       </c>
       <c r="C157" s="2">
@@ -9116,13 +9716,13 @@
       <c r="D157">
         <v>3</v>
       </c>
-      <c r="E157" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="F157" s="10">
-        <v>1</v>
-      </c>
-      <c r="G157" s="7" t="s">
+      <c r="E157" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F157" s="9">
+        <v>1</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>45</v>
       </c>
       <c r="H157" s="2">
@@ -9133,7 +9733,7 @@
       <c r="A158" s="1">
         <v>152</v>
       </c>
-      <c r="B158" s="17">
+      <c r="B158" s="16">
         <v>202</v>
       </c>
       <c r="C158" s="2">
@@ -9142,14 +9742,14 @@
       <c r="D158">
         <v>3</v>
       </c>
-      <c r="E158" s="9" t="s">
-        <v>256</v>
+      <c r="E158" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="F158" s="6">
         <v>0</v>
       </c>
-      <c r="G158" s="7" t="s">
-        <v>267</v>
+      <c r="G158" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="H158" s="2">
         <v>300</v>
@@ -9159,7 +9759,7 @@
       <c r="A159" s="1">
         <v>153</v>
       </c>
-      <c r="B159" s="17">
+      <c r="B159" s="16">
         <v>202</v>
       </c>
       <c r="C159" s="2">
@@ -9168,13 +9768,13 @@
       <c r="D159">
         <v>3</v>
       </c>
-      <c r="E159" s="9" t="s">
-        <v>257</v>
+      <c r="E159" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="F159" s="6">
         <v>0</v>
       </c>
-      <c r="G159" s="7"/>
+      <c r="G159" s="2"/>
       <c r="H159" s="2">
         <v>300</v>
       </c>
@@ -9183,7 +9783,7 @@
       <c r="A160" s="1">
         <v>154</v>
       </c>
-      <c r="B160" s="17">
+      <c r="B160" s="16">
         <v>202</v>
       </c>
       <c r="C160" s="2">
@@ -9192,14 +9792,14 @@
       <c r="D160">
         <v>3</v>
       </c>
-      <c r="E160" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="F160" s="10">
-        <v>1</v>
-      </c>
-      <c r="G160" s="7" t="s">
-        <v>266</v>
+      <c r="E160" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F160" s="9">
+        <v>1</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="H160" s="2">
         <v>300</v>
@@ -9209,7 +9809,7 @@
       <c r="A161" s="1">
         <v>155</v>
       </c>
-      <c r="B161" s="17">
+      <c r="B161" s="16">
         <v>202</v>
       </c>
       <c r="C161" s="2">
@@ -9218,13 +9818,13 @@
       <c r="D161">
         <v>3</v>
       </c>
-      <c r="E161" s="9" t="s">
-        <v>259</v>
+      <c r="E161" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="F161" s="6">
         <v>0</v>
       </c>
-      <c r="G161" s="7"/>
+      <c r="G161" s="2"/>
       <c r="H161" s="2">
         <v>300</v>
       </c>
@@ -9233,7 +9833,7 @@
       <c r="A162" s="1">
         <v>156</v>
       </c>
-      <c r="B162" s="17">
+      <c r="B162" s="16">
         <v>202</v>
       </c>
       <c r="C162" s="2">
@@ -9242,8 +9842,8 @@
       <c r="D162">
         <v>3</v>
       </c>
-      <c r="E162" s="9" t="s">
-        <v>260</v>
+      <c r="E162" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="F162" s="6">
         <v>0</v>
@@ -9256,7 +9856,7 @@
       <c r="A163" s="1">
         <v>157</v>
       </c>
-      <c r="B163" s="17">
+      <c r="B163" s="16">
         <v>202</v>
       </c>
       <c r="C163" s="2">
@@ -9265,14 +9865,14 @@
       <c r="D163">
         <v>3</v>
       </c>
-      <c r="E163" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="F163" s="10">
-        <v>1</v>
-      </c>
-      <c r="G163" s="7" t="s">
-        <v>268</v>
+      <c r="E163" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F163" s="9">
+        <v>1</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="H163" s="2">
         <v>300</v>
@@ -9282,7 +9882,7 @@
       <c r="A164" s="1">
         <v>158</v>
       </c>
-      <c r="B164" s="17">
+      <c r="B164" s="16">
         <v>202</v>
       </c>
       <c r="C164" s="2">
@@ -9291,8 +9891,8 @@
       <c r="D164">
         <v>3</v>
       </c>
-      <c r="E164" s="9" t="s">
-        <v>262</v>
+      <c r="E164" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="F164" s="6">
         <v>0</v>
@@ -9305,7 +9905,7 @@
       <c r="A165" s="1">
         <v>159</v>
       </c>
-      <c r="B165" s="17">
+      <c r="B165" s="16">
         <v>202</v>
       </c>
       <c r="C165" s="2">
@@ -9314,8 +9914,8 @@
       <c r="D165">
         <v>3</v>
       </c>
-      <c r="E165" s="9" t="s">
-        <v>263</v>
+      <c r="E165" s="8" t="s">
+        <v>268</v>
       </c>
       <c r="F165" s="6">
         <v>0</v>
@@ -9328,23 +9928,23 @@
       <c r="A166" s="1">
         <v>160</v>
       </c>
-      <c r="B166" s="17">
+      <c r="B166" s="16">
         <v>202</v>
       </c>
       <c r="C166" s="2">
         <v>80</v>
       </c>
-      <c r="D166" s="15">
-        <v>3</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="F166" s="10">
-        <v>1</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>265</v>
+      <c r="D166" s="14">
+        <v>3</v>
+      </c>
+      <c r="E166" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F166" s="9">
+        <v>1</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="H166" s="2">
         <v>300</v>
@@ -9352,6 +9952,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>